--- a/13c15n and 2h labeling_cor.xlsx
+++ b/13c15n and 2h labeling_cor.xlsx
@@ -17,7 +17,376 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="246">
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>metaGroupId</t>
+  </si>
+  <si>
+    <t>groupId</t>
+  </si>
+  <si>
+    <t>goodPeakCount</t>
+  </si>
+  <si>
+    <t>medMz</t>
+  </si>
+  <si>
+    <t>medRt</t>
+  </si>
+  <si>
+    <t>maxQuality</t>
+  </si>
+  <si>
+    <t>adductName</t>
+  </si>
+  <si>
+    <t>[M+H]+</t>
+  </si>
+  <si>
+    <t>isotopeLabel</t>
+  </si>
+  <si>
+    <t>C12 PARENT</t>
+  </si>
+  <si>
+    <t>C13-label-1</t>
+  </si>
+  <si>
+    <t>C13-label-4</t>
+  </si>
+  <si>
+    <t>C13-label-5</t>
+  </si>
+  <si>
+    <t>C13N15-label-5-1</t>
+  </si>
+  <si>
+    <t>N15-label-1</t>
+  </si>
+  <si>
+    <t>C12 PARENT</t>
+  </si>
+  <si>
+    <t>D2-label-1</t>
+  </si>
+  <si>
+    <t>D2-label-3</t>
+  </si>
+  <si>
+    <t>D2-label-7</t>
+  </si>
+  <si>
+    <t>compound</t>
+  </si>
+  <si>
+    <t>L-Methionine</t>
+  </si>
+  <si>
+    <t>Creatine</t>
+  </si>
+  <si>
+    <t>compoundId</t>
+  </si>
+  <si>
+    <t>L-Methionine</t>
+  </si>
+  <si>
+    <t>Creatine</t>
+  </si>
+  <si>
+    <t>formula</t>
+  </si>
+  <si>
+    <t>C5H11NO2S</t>
+  </si>
+  <si>
+    <t>C4H9N3O2</t>
+  </si>
+  <si>
+    <t>expectedRtDiff</t>
+  </si>
+  <si>
+    <t>ppmDiff</t>
+  </si>
+  <si>
+    <t>parent</t>
+  </si>
+  <si>
+    <t>x821_F</t>
+  </si>
+  <si>
+    <t>x822_F</t>
+  </si>
+  <si>
+    <t>x823_F</t>
+  </si>
+  <si>
+    <t>x824_F</t>
+  </si>
+  <si>
+    <t>blank1</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>metaGroupId</t>
+  </si>
+  <si>
+    <t>groupId</t>
+  </si>
+  <si>
+    <t>goodPeakCount</t>
+  </si>
+  <si>
+    <t>medMz</t>
+  </si>
+  <si>
+    <t>medRt</t>
+  </si>
+  <si>
+    <t>maxQuality</t>
+  </si>
+  <si>
+    <t>adductName</t>
+  </si>
+  <si>
+    <t>[M+H]+</t>
+  </si>
+  <si>
+    <t>isotopeLabel</t>
+  </si>
+  <si>
+    <t>C12 PARENT</t>
+  </si>
+  <si>
+    <t>C13-label-1</t>
+  </si>
+  <si>
+    <t>C13-label-4</t>
+  </si>
+  <si>
+    <t>C13-label-5</t>
+  </si>
+  <si>
+    <t>C13N15-label-5-1</t>
+  </si>
+  <si>
+    <t>N15-label-1</t>
+  </si>
+  <si>
+    <t>C12 PARENT</t>
+  </si>
+  <si>
+    <t>D2-label-1</t>
+  </si>
+  <si>
+    <t>D2-label-3</t>
+  </si>
+  <si>
+    <t>D2-label-7</t>
+  </si>
+  <si>
+    <t>compound</t>
+  </si>
+  <si>
+    <t>L-Methionine</t>
+  </si>
+  <si>
+    <t>Creatine</t>
+  </si>
+  <si>
+    <t>compoundId</t>
+  </si>
+  <si>
+    <t>L-Methionine</t>
+  </si>
+  <si>
+    <t>Creatine</t>
+  </si>
+  <si>
+    <t>formula</t>
+  </si>
+  <si>
+    <t>C5H11NO2S</t>
+  </si>
+  <si>
+    <t>C4H9N3O2</t>
+  </si>
+  <si>
+    <t>expectedRtDiff</t>
+  </si>
+  <si>
+    <t>ppmDiff</t>
+  </si>
+  <si>
+    <t>parent</t>
+  </si>
+  <si>
+    <t>x821_F</t>
+  </si>
+  <si>
+    <t>x822_F</t>
+  </si>
+  <si>
+    <t>x823_F</t>
+  </si>
+  <si>
+    <t>x824_F</t>
+  </si>
+  <si>
+    <t>blank1</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>metaGroupId</t>
+  </si>
+  <si>
+    <t>groupId</t>
+  </si>
+  <si>
+    <t>goodPeakCount</t>
+  </si>
+  <si>
+    <t>medMz</t>
+  </si>
+  <si>
+    <t>medRt</t>
+  </si>
+  <si>
+    <t>maxQuality</t>
+  </si>
+  <si>
+    <t>adductName</t>
+  </si>
+  <si>
+    <t>[M+H]+</t>
+  </si>
+  <si>
+    <t>isotopeLabel</t>
+  </si>
+  <si>
+    <t>C12 PARENT</t>
+  </si>
+  <si>
+    <t>C13-label-1</t>
+  </si>
+  <si>
+    <t>C13-label-4</t>
+  </si>
+  <si>
+    <t>C13-label-5</t>
+  </si>
+  <si>
+    <t>C13N15-label-5-1</t>
+  </si>
+  <si>
+    <t>N15-label-1</t>
+  </si>
+  <si>
+    <t>C12 PARENT</t>
+  </si>
+  <si>
+    <t>D2-label-1</t>
+  </si>
+  <si>
+    <t>D2-label-3</t>
+  </si>
+  <si>
+    <t>D2-label-7</t>
+  </si>
+  <si>
+    <t>compound</t>
+  </si>
+  <si>
+    <t>L-Methionine</t>
+  </si>
+  <si>
+    <t>Creatine</t>
+  </si>
+  <si>
+    <t>compoundId</t>
+  </si>
+  <si>
+    <t>L-Methionine</t>
+  </si>
+  <si>
+    <t>Creatine</t>
+  </si>
+  <si>
+    <t>formula</t>
+  </si>
+  <si>
+    <t>C5H11NO2S</t>
+  </si>
+  <si>
+    <t>C4H9N3O2</t>
+  </si>
+  <si>
+    <t>expectedRtDiff</t>
+  </si>
+  <si>
+    <t>ppmDiff</t>
+  </si>
+  <si>
+    <t>parent</t>
+  </si>
+  <si>
+    <t>x821_F</t>
+  </si>
+  <si>
+    <t>x822_F</t>
+  </si>
+  <si>
+    <t>x823_F</t>
+  </si>
+  <si>
+    <t>x824_F</t>
+  </si>
+  <si>
+    <t>blank1</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>L-Methionine</t>
+  </si>
+  <si>
+    <t>Creatine</t>
+  </si>
+  <si>
+    <t>formula</t>
+  </si>
+  <si>
+    <t>C5H11NO2S</t>
+  </si>
+  <si>
+    <t>C4H9N3O2</t>
+  </si>
+  <si>
+    <t>x821_F</t>
+  </si>
+  <si>
+    <t>x822_F</t>
+  </si>
+  <si>
+    <t>x823_F</t>
+  </si>
+  <si>
+    <t>x824_F</t>
+  </si>
+  <si>
+    <t>blank1</t>
+  </si>
   <si>
     <t>label</t>
   </si>
@@ -458,64 +827,64 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>1</v>
+        <v>124</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>2</v>
+        <v>125</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>3</v>
+        <v>126</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>4</v>
+        <v>127</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>5</v>
+        <v>128</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>6</v>
+        <v>129</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>7</v>
+        <v>130</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>9</v>
+        <v>132</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>20</v>
+        <v>143</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>23</v>
+        <v>146</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>26</v>
+        <v>149</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>29</v>
+        <v>152</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>30</v>
+        <v>153</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>31</v>
+        <v>154</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>32</v>
+        <v>155</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>33</v>
+        <v>156</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>34</v>
+        <v>157</v>
       </c>
       <c r="S1" s="0" t="s">
-        <v>35</v>
+        <v>158</v>
       </c>
       <c r="T1" s="0" t="s">
-        <v>36</v>
+        <v>159</v>
       </c>
     </row>
     <row r="2">
@@ -539,19 +908,19 @@
         <v>0.81329399999999996</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>8</v>
+        <v>131</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>10</v>
+        <v>133</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>21</v>
+        <v>144</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>24</v>
+        <v>147</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>27</v>
+        <v>150</v>
       </c>
       <c r="M2" s="0">
         <v>0.010999999999999999</v>
@@ -600,16 +969,16 @@
       </c>
       <c r="H3" s="0"/>
       <c r="I3" s="0" t="s">
-        <v>11</v>
+        <v>134</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>21</v>
+        <v>144</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>24</v>
+        <v>147</v>
       </c>
       <c r="L3" s="0" t="s">
-        <v>27</v>
+        <v>150</v>
       </c>
       <c r="M3" s="0">
         <v>0.025000000000000001</v>
@@ -658,16 +1027,16 @@
       </c>
       <c r="H4" s="0"/>
       <c r="I4" s="0" t="s">
-        <v>12</v>
+        <v>135</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>21</v>
+        <v>144</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>24</v>
+        <v>147</v>
       </c>
       <c r="L4" s="0" t="s">
-        <v>27</v>
+        <v>150</v>
       </c>
       <c r="M4" s="0">
         <v>0.002</v>
@@ -716,16 +1085,16 @@
       </c>
       <c r="H5" s="0"/>
       <c r="I5" s="0" t="s">
-        <v>13</v>
+        <v>136</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>21</v>
+        <v>144</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>24</v>
+        <v>147</v>
       </c>
       <c r="L5" s="0" t="s">
-        <v>27</v>
+        <v>150</v>
       </c>
       <c r="M5" s="0">
         <v>0.036999999999999998</v>
@@ -774,16 +1143,16 @@
       </c>
       <c r="H6" s="0"/>
       <c r="I6" s="0" t="s">
-        <v>14</v>
+        <v>137</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>21</v>
+        <v>144</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>24</v>
+        <v>147</v>
       </c>
       <c r="L6" s="0" t="s">
-        <v>27</v>
+        <v>150</v>
       </c>
       <c r="M6" s="0">
         <v>0.048000000000000001</v>
@@ -832,16 +1201,16 @@
       </c>
       <c r="H7" s="0"/>
       <c r="I7" s="0" t="s">
-        <v>15</v>
+        <v>138</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>21</v>
+        <v>144</v>
       </c>
       <c r="K7" s="0" t="s">
-        <v>24</v>
+        <v>147</v>
       </c>
       <c r="L7" s="0" t="s">
-        <v>27</v>
+        <v>150</v>
       </c>
       <c r="M7" s="0">
         <v>0.039</v>
@@ -889,19 +1258,19 @@
         <v>0.79224099999999997</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>8</v>
+        <v>131</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>16</v>
+        <v>139</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>22</v>
+        <v>145</v>
       </c>
       <c r="K8" s="0" t="s">
-        <v>25</v>
+        <v>148</v>
       </c>
       <c r="L8" s="0" t="s">
-        <v>28</v>
+        <v>151</v>
       </c>
       <c r="M8" s="0">
         <v>0.042000000000000003</v>
@@ -950,16 +1319,16 @@
       </c>
       <c r="H9" s="0"/>
       <c r="I9" s="0" t="s">
-        <v>17</v>
+        <v>140</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>22</v>
+        <v>145</v>
       </c>
       <c r="K9" s="0" t="s">
-        <v>25</v>
+        <v>148</v>
       </c>
       <c r="L9" s="0" t="s">
-        <v>28</v>
+        <v>151</v>
       </c>
       <c r="M9" s="0">
         <v>0.029999999999999999</v>
@@ -1008,16 +1377,16 @@
       </c>
       <c r="H10" s="0"/>
       <c r="I10" s="0" t="s">
-        <v>18</v>
+        <v>141</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>22</v>
+        <v>145</v>
       </c>
       <c r="K10" s="0" t="s">
-        <v>25</v>
+        <v>148</v>
       </c>
       <c r="L10" s="0" t="s">
-        <v>28</v>
+        <v>151</v>
       </c>
       <c r="M10" s="0">
         <v>0.042000000000000003</v>
@@ -1066,16 +1435,16 @@
       </c>
       <c r="H11" s="0"/>
       <c r="I11" s="0" t="s">
-        <v>19</v>
+        <v>142</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>22</v>
+        <v>145</v>
       </c>
       <c r="K11" s="0" t="s">
-        <v>25</v>
+        <v>148</v>
       </c>
       <c r="L11" s="0" t="s">
-        <v>28</v>
+        <v>151</v>
       </c>
       <c r="M11" s="0">
         <v>0.034000000000000002</v>
@@ -1135,64 +1504,64 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>37</v>
+        <v>160</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>38</v>
+        <v>161</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>39</v>
+        <v>162</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>40</v>
+        <v>163</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>41</v>
+        <v>164</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>42</v>
+        <v>165</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>43</v>
+        <v>166</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>44</v>
+        <v>167</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>46</v>
+        <v>169</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>57</v>
+        <v>180</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>60</v>
+        <v>183</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>63</v>
+        <v>186</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>66</v>
+        <v>189</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>67</v>
+        <v>190</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>68</v>
+        <v>191</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>69</v>
+        <v>192</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>70</v>
+        <v>193</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>71</v>
+        <v>194</v>
       </c>
       <c r="S1" s="0" t="s">
-        <v>72</v>
+        <v>195</v>
       </c>
       <c r="T1" s="0" t="s">
-        <v>73</v>
+        <v>196</v>
       </c>
     </row>
     <row r="2">
@@ -1216,19 +1585,19 @@
         <v>0.81329399999999996</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>45</v>
+        <v>168</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>47</v>
+        <v>170</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>58</v>
+        <v>181</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>61</v>
+        <v>184</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>64</v>
+        <v>187</v>
       </c>
       <c r="M2" s="0">
         <v>0.010999999999999999</v>
@@ -1277,16 +1646,16 @@
       </c>
       <c r="H3" s="0"/>
       <c r="I3" s="0" t="s">
-        <v>48</v>
+        <v>171</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>58</v>
+        <v>181</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>61</v>
+        <v>184</v>
       </c>
       <c r="L3" s="0" t="s">
-        <v>64</v>
+        <v>187</v>
       </c>
       <c r="M3" s="0">
         <v>0.025000000000000001</v>
@@ -1335,16 +1704,16 @@
       </c>
       <c r="H4" s="0"/>
       <c r="I4" s="0" t="s">
-        <v>49</v>
+        <v>172</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>58</v>
+        <v>181</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>61</v>
+        <v>184</v>
       </c>
       <c r="L4" s="0" t="s">
-        <v>64</v>
+        <v>187</v>
       </c>
       <c r="M4" s="0">
         <v>0.002</v>
@@ -1393,16 +1762,16 @@
       </c>
       <c r="H5" s="0"/>
       <c r="I5" s="0" t="s">
-        <v>50</v>
+        <v>173</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>58</v>
+        <v>181</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>61</v>
+        <v>184</v>
       </c>
       <c r="L5" s="0" t="s">
-        <v>64</v>
+        <v>187</v>
       </c>
       <c r="M5" s="0">
         <v>0.036999999999999998</v>
@@ -1451,16 +1820,16 @@
       </c>
       <c r="H6" s="0"/>
       <c r="I6" s="0" t="s">
-        <v>51</v>
+        <v>174</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>58</v>
+        <v>181</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>61</v>
+        <v>184</v>
       </c>
       <c r="L6" s="0" t="s">
-        <v>64</v>
+        <v>187</v>
       </c>
       <c r="M6" s="0">
         <v>0.048000000000000001</v>
@@ -1509,16 +1878,16 @@
       </c>
       <c r="H7" s="0"/>
       <c r="I7" s="0" t="s">
-        <v>52</v>
+        <v>175</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>58</v>
+        <v>181</v>
       </c>
       <c r="K7" s="0" t="s">
-        <v>61</v>
+        <v>184</v>
       </c>
       <c r="L7" s="0" t="s">
-        <v>64</v>
+        <v>187</v>
       </c>
       <c r="M7" s="0">
         <v>0.039</v>
@@ -1566,19 +1935,19 @@
         <v>0.79224099999999997</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>45</v>
+        <v>168</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>53</v>
+        <v>176</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>59</v>
+        <v>182</v>
       </c>
       <c r="K8" s="0" t="s">
-        <v>62</v>
+        <v>185</v>
       </c>
       <c r="L8" s="0" t="s">
-        <v>65</v>
+        <v>188</v>
       </c>
       <c r="M8" s="0">
         <v>0.042000000000000003</v>
@@ -1627,16 +1996,16 @@
       </c>
       <c r="H9" s="0"/>
       <c r="I9" s="0" t="s">
-        <v>54</v>
+        <v>177</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>59</v>
+        <v>182</v>
       </c>
       <c r="K9" s="0" t="s">
-        <v>62</v>
+        <v>185</v>
       </c>
       <c r="L9" s="0" t="s">
-        <v>65</v>
+        <v>188</v>
       </c>
       <c r="M9" s="0">
         <v>0.029999999999999999</v>
@@ -1685,16 +2054,16 @@
       </c>
       <c r="H10" s="0"/>
       <c r="I10" s="0" t="s">
-        <v>55</v>
+        <v>178</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>59</v>
+        <v>182</v>
       </c>
       <c r="K10" s="0" t="s">
-        <v>62</v>
+        <v>185</v>
       </c>
       <c r="L10" s="0" t="s">
-        <v>65</v>
+        <v>188</v>
       </c>
       <c r="M10" s="0">
         <v>0.042000000000000003</v>
@@ -1743,16 +2112,16 @@
       </c>
       <c r="H11" s="0"/>
       <c r="I11" s="0" t="s">
-        <v>56</v>
+        <v>179</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>59</v>
+        <v>182</v>
       </c>
       <c r="K11" s="0" t="s">
-        <v>62</v>
+        <v>185</v>
       </c>
       <c r="L11" s="0" t="s">
-        <v>65</v>
+        <v>188</v>
       </c>
       <c r="M11" s="0">
         <v>0.034000000000000002</v>
@@ -1812,64 +2181,64 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>74</v>
+        <v>197</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>75</v>
+        <v>198</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>76</v>
+        <v>199</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>77</v>
+        <v>200</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>78</v>
+        <v>201</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>79</v>
+        <v>202</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>80</v>
+        <v>203</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>81</v>
+        <v>204</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>83</v>
+        <v>206</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>94</v>
+        <v>217</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>97</v>
+        <v>220</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>100</v>
+        <v>223</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>103</v>
+        <v>226</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>104</v>
+        <v>227</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>105</v>
+        <v>228</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>106</v>
+        <v>229</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>107</v>
+        <v>230</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>108</v>
+        <v>231</v>
       </c>
       <c r="S1" s="0" t="s">
-        <v>109</v>
+        <v>232</v>
       </c>
       <c r="T1" s="0" t="s">
-        <v>110</v>
+        <v>233</v>
       </c>
     </row>
     <row r="2">
@@ -1893,19 +2262,19 @@
         <v>0.81329399999999996</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>82</v>
+        <v>205</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>84</v>
+        <v>207</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>95</v>
+        <v>218</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>98</v>
+        <v>221</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>101</v>
+        <v>224</v>
       </c>
       <c r="M2" s="0">
         <v>0.010999999999999999</v>
@@ -1954,16 +2323,16 @@
       </c>
       <c r="H3" s="0"/>
       <c r="I3" s="0" t="s">
-        <v>85</v>
+        <v>208</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>95</v>
+        <v>218</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>98</v>
+        <v>221</v>
       </c>
       <c r="L3" s="0" t="s">
-        <v>101</v>
+        <v>224</v>
       </c>
       <c r="M3" s="0">
         <v>0.025000000000000001</v>
@@ -2012,16 +2381,16 @@
       </c>
       <c r="H4" s="0"/>
       <c r="I4" s="0" t="s">
-        <v>86</v>
+        <v>209</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>95</v>
+        <v>218</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>98</v>
+        <v>221</v>
       </c>
       <c r="L4" s="0" t="s">
-        <v>101</v>
+        <v>224</v>
       </c>
       <c r="M4" s="0">
         <v>0.002</v>
@@ -2070,16 +2439,16 @@
       </c>
       <c r="H5" s="0"/>
       <c r="I5" s="0" t="s">
-        <v>87</v>
+        <v>210</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>95</v>
+        <v>218</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>98</v>
+        <v>221</v>
       </c>
       <c r="L5" s="0" t="s">
-        <v>101</v>
+        <v>224</v>
       </c>
       <c r="M5" s="0">
         <v>0.036999999999999998</v>
@@ -2128,16 +2497,16 @@
       </c>
       <c r="H6" s="0"/>
       <c r="I6" s="0" t="s">
-        <v>88</v>
+        <v>211</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>95</v>
+        <v>218</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>98</v>
+        <v>221</v>
       </c>
       <c r="L6" s="0" t="s">
-        <v>101</v>
+        <v>224</v>
       </c>
       <c r="M6" s="0">
         <v>0.048000000000000001</v>
@@ -2186,16 +2555,16 @@
       </c>
       <c r="H7" s="0"/>
       <c r="I7" s="0" t="s">
-        <v>89</v>
+        <v>212</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>95</v>
+        <v>218</v>
       </c>
       <c r="K7" s="0" t="s">
-        <v>98</v>
+        <v>221</v>
       </c>
       <c r="L7" s="0" t="s">
-        <v>101</v>
+        <v>224</v>
       </c>
       <c r="M7" s="0">
         <v>0.039</v>
@@ -2243,19 +2612,19 @@
         <v>0.79224099999999997</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>82</v>
+        <v>205</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>90</v>
+        <v>213</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>96</v>
+        <v>219</v>
       </c>
       <c r="K8" s="0" t="s">
-        <v>99</v>
+        <v>222</v>
       </c>
       <c r="L8" s="0" t="s">
-        <v>102</v>
+        <v>225</v>
       </c>
       <c r="M8" s="0">
         <v>0.042000000000000003</v>
@@ -2304,16 +2673,16 @@
       </c>
       <c r="H9" s="0"/>
       <c r="I9" s="0" t="s">
-        <v>91</v>
+        <v>214</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>96</v>
+        <v>219</v>
       </c>
       <c r="K9" s="0" t="s">
-        <v>99</v>
+        <v>222</v>
       </c>
       <c r="L9" s="0" t="s">
-        <v>102</v>
+        <v>225</v>
       </c>
       <c r="M9" s="0">
         <v>0.029999999999999999</v>
@@ -2362,16 +2731,16 @@
       </c>
       <c r="H10" s="0"/>
       <c r="I10" s="0" t="s">
-        <v>92</v>
+        <v>215</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>96</v>
+        <v>219</v>
       </c>
       <c r="K10" s="0" t="s">
-        <v>99</v>
+        <v>222</v>
       </c>
       <c r="L10" s="0" t="s">
-        <v>102</v>
+        <v>225</v>
       </c>
       <c r="M10" s="0">
         <v>0.042000000000000003</v>
@@ -2420,16 +2789,16 @@
       </c>
       <c r="H11" s="0"/>
       <c r="I11" s="0" t="s">
-        <v>93</v>
+        <v>216</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>96</v>
+        <v>219</v>
       </c>
       <c r="K11" s="0" t="s">
-        <v>99</v>
+        <v>222</v>
       </c>
       <c r="L11" s="0" t="s">
-        <v>102</v>
+        <v>225</v>
       </c>
       <c r="M11" s="0">
         <v>0.034000000000000002</v>
@@ -2477,28 +2846,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>111</v>
+        <v>234</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>112</v>
+        <v>235</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>115</v>
+        <v>238</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>118</v>
+        <v>241</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>119</v>
+        <v>242</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>120</v>
+        <v>243</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>121</v>
+        <v>244</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>122</v>
+        <v>245</v>
       </c>
     </row>
     <row r="2">
@@ -2506,10 +2875,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>113</v>
+        <v>236</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>116</v>
+        <v>239</v>
       </c>
       <c r="D2" s="0">
         <v>887535.94371047278</v>
@@ -2532,10 +2901,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>114</v>
+        <v>237</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>117</v>
+        <v>240</v>
       </c>
       <c r="D3" s="0">
         <v>39097715.348180965</v>
